--- a/results/D03_TukeyHSD_results.xlsx
+++ b/results/D03_TukeyHSD_results.xlsx
@@ -1,46 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/day/Documents/Year 2/Summer Project/Project/FLY/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C6F4F7-7A90-D04D-951D-0498A660252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="21040" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Genotype" sheetId="1" r:id="rId1"/>
     <sheet name="Treatment" sheetId="2" r:id="rId2"/>
     <sheet name="Interaction" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>lwr</t>
-  </si>
-  <si>
-    <t>upr</t>
-  </si>
-  <si>
-    <t>p adj</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +65,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +109,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +143,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +177,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,109 +352,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2.9294803817603001</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Comparison</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lwr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.adj</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mT-tT</t>
+        </is>
       </c>
       <c r="B2">
-        <v>-4.6940738204031877E-2</v>
+        <v>2.9294803817603</v>
       </c>
       <c r="C2">
-        <v>5.9059015017246317</v>
+        <v>-0.04694073820403188</v>
       </c>
       <c r="D2">
-        <v>5.5616970369513068E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>4.6301185947639283</v>
+        <v>5.905901501724632</v>
+      </c>
+      <c r="E2">
+        <v>0.05561697036951307</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tM-tT</t>
+        </is>
       </c>
       <c r="B3">
+        <v>4.630118594763928</v>
+      </c>
+      <c r="C3">
         <v>1.774468246974426</v>
       </c>
-      <c r="C3">
-        <v>7.4857689425534302</v>
-      </c>
       <c r="D3">
-        <v>1.8617408566456989E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4.8988546473302392</v>
+        <v>7.48576894255343</v>
+      </c>
+      <c r="E3">
+        <v>0.0001861740856645699</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mM-tT</t>
+        </is>
       </c>
       <c r="B4">
+        <v>4.898854647330239</v>
+      </c>
+      <c r="C4">
         <v>1.974142405080699</v>
       </c>
-      <c r="C4">
-        <v>7.8235668895797792</v>
-      </c>
       <c r="D4">
-        <v>1.017482550924598E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1.7006382130036291</v>
+        <v>7.823566889579779</v>
+      </c>
+      <c r="E4">
+        <v>0.0001017482550924598</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tM-mT</t>
+        </is>
       </c>
       <c r="B5">
-        <v>-1.1851596548762859</v>
+        <v>1.700638213003629</v>
       </c>
       <c r="C5">
-        <v>4.5864360808835416</v>
+        <v>-1.185159654876286</v>
       </c>
       <c r="D5">
-        <v>0.42855124778171261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>4.586436080883542</v>
+      </c>
+      <c r="E5">
+        <v>0.4285512477817126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mM-mT</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>1.96937426556994</v>
       </c>
-      <c r="B6">
-        <v>-0.98478079559294596</v>
-      </c>
       <c r="C6">
-        <v>4.9235293267328251</v>
+        <v>-0.984780795592946</v>
       </c>
       <c r="D6">
-        <v>0.31659154322005012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.26873605256631089</v>
+        <v>4.923529326732825</v>
+      </c>
+      <c r="E6">
+        <v>0.3165915432200501</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mM-tM</t>
+        </is>
       </c>
       <c r="B7">
+        <v>0.2687360525663109</v>
+      </c>
+      <c r="C7">
         <v>-2.563699004209901</v>
       </c>
-      <c r="C7">
-        <v>3.1011711093425229</v>
-      </c>
       <c r="D7">
-        <v>0.99490083229023529</v>
+        <v>3.101171109342523</v>
+      </c>
+      <c r="E7">
+        <v>0.9949008322902353</v>
       </c>
     </row>
   </sheetData>
@@ -496,66 +506,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>12.844867330507361</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Comparison</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lwr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.adj</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fluctuation_small-constant</t>
+        </is>
       </c>
       <c r="B2">
+        <v>12.84486733050736</v>
+      </c>
+      <c r="C2">
         <v>10.56420678991037</v>
       </c>
-      <c r="C2">
-        <v>15.125527871104341</v>
-      </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>53.016617986718018</v>
+        <v>15.12552787110434</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fluctuation_big-constant</t>
+        </is>
       </c>
       <c r="B3">
-        <v>50.708083030517358</v>
+        <v>53.01661798671802</v>
       </c>
       <c r="C3">
-        <v>55.325152942918677</v>
+        <v>50.70808303051736</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>40.171750656210662</v>
+        <v>55.32515294291868</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fluctuation_big-fluctuation_small</t>
+        </is>
       </c>
       <c r="B4">
-        <v>37.887341189682878</v>
+        <v>40.17175065621066</v>
       </c>
       <c r="C4">
-        <v>42.456160122738453</v>
+        <v>37.88734118968288</v>
       </c>
       <c r="D4">
+        <v>42.45616012273845</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -565,949 +603,1292 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Comparison</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lwr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>upr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.adj</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mT:constant-tT:constant</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>1.82527624309364</v>
       </c>
-      <c r="B2">
-        <v>-4.8258081791434613</v>
-      </c>
       <c r="C2">
-        <v>8.4763606653307413</v>
+        <v>-4.825808179143461</v>
       </c>
       <c r="D2">
-        <v>0.99915226251928857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+        <v>8.476360665330741</v>
+      </c>
+      <c r="E2">
+        <v>0.9991522625192886</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tM:constant-tT:constant</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>5.59248878923745</v>
       </c>
-      <c r="B3">
-        <v>-0.73498112219214029</v>
-      </c>
       <c r="C3">
+        <v>-0.7349811221921403</v>
+      </c>
+      <c r="D3">
         <v>11.91995870066704</v>
       </c>
-      <c r="D3">
-        <v>0.14450427399318011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3.4708549222796141</v>
+      <c r="E3">
+        <v>0.1445042739931801</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mM:constant-tT:constant</t>
+        </is>
       </c>
       <c r="B4">
-        <v>-3.0751652029077161</v>
+        <v>3.470854922279614</v>
       </c>
       <c r="C4">
-        <v>10.016875047466939</v>
+        <v>-3.075165202907716</v>
       </c>
       <c r="D4">
-        <v>0.85220738087167169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+        <v>10.01687504746694</v>
+      </c>
+      <c r="E4">
+        <v>0.8522073808716717</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_small-tT:constant</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>11.10883084577037</v>
       </c>
-      <c r="B5">
-        <v>4.6267021144164966</v>
-      </c>
       <c r="C5">
-        <v>17.590959577124249</v>
+        <v>4.626702114416497</v>
       </c>
       <c r="D5">
-        <v>1.509420641698789E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>17.59095957712425</v>
+      </c>
+      <c r="E5">
+        <v>1.509420641698789E-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_small-tT:constant</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>14.45254010695106</v>
       </c>
-      <c r="B6">
-        <v>7.8554644134387379</v>
-      </c>
       <c r="C6">
-        <v>21.049615800463389</v>
+        <v>7.855464413438738</v>
       </c>
       <c r="D6">
-        <v>4.5190406972039909E-11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>18.007420091323471</v>
+        <v>21.04961580046339</v>
+      </c>
+      <c r="E6">
+        <v>4.519040697203991E-11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_small-tT:constant</t>
+        </is>
       </c>
       <c r="B7">
+        <v>18.00742009132347</v>
+      </c>
+      <c r="C7">
         <v>11.65387990447952</v>
       </c>
-      <c r="C7">
-        <v>24.360960278167411</v>
-      </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>18.740384615383849</v>
+        <v>24.36096027816741</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_small-tT:constant</t>
+        </is>
       </c>
       <c r="B8">
-        <v>12.310596203764961</v>
+        <v>18.74038461538385</v>
       </c>
       <c r="C8">
-        <v>25.170173027002729</v>
+        <v>12.31059620376496</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>53.250661375660201</v>
+        <v>25.17017302700273</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_big-tT:constant</t>
+        </is>
       </c>
       <c r="B9">
-        <v>46.670919910738483</v>
+        <v>53.2506613756602</v>
       </c>
       <c r="C9">
-        <v>59.830402840581932</v>
+        <v>46.67091991073848</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>56.576086956520577</v>
+        <v>59.83040284058193</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_big-tT:constant</t>
+        </is>
       </c>
       <c r="B10">
-        <v>49.952392154098852</v>
+        <v>56.57608695652058</v>
       </c>
       <c r="C10">
-        <v>63.199781758942308</v>
+        <v>49.95239215409885</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>55.889150943395151</v>
+        <v>63.19978175894231</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-tT:constant</t>
+        </is>
       </c>
       <c r="B11">
-        <v>49.487898154213049</v>
+        <v>55.88915094339515</v>
       </c>
       <c r="C11">
-        <v>62.290403732577253</v>
+        <v>49.48789815421305</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>57.670811518323518</v>
+        <v>62.29040373257725</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-tT:constant</t>
+        </is>
       </c>
       <c r="B12">
-        <v>51.108085618275247</v>
+        <v>57.67081151832352</v>
       </c>
       <c r="C12">
-        <v>64.233537418371782</v>
+        <v>51.10808561827525</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+        <v>64.23353741837178</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tM:constant-mT:constant</t>
+        </is>
+      </c>
+      <c r="B13">
         <v>3.76721254614381</v>
       </c>
-      <c r="B13">
-        <v>-2.5889235943225941</v>
-      </c>
       <c r="C13">
+        <v>-2.588923594322594</v>
+      </c>
+      <c r="D13">
         <v>10.12334868661021</v>
       </c>
-      <c r="D13">
-        <v>0.73456635267202741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1.6455786791859739</v>
+      <c r="E13">
+        <v>0.7345663526720274</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mM:constant-mT:constant</t>
+        </is>
       </c>
       <c r="B14">
-        <v>-4.9281547072128014</v>
+        <v>1.645578679185974</v>
       </c>
       <c r="C14">
-        <v>8.2193120655847487</v>
+        <v>-4.928154707212801</v>
       </c>
       <c r="D14">
-        <v>0.99964583507833371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>9.2835546026767304</v>
+        <v>8.219312065584749</v>
+      </c>
+      <c r="E14">
+        <v>0.9996458350783337</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_small-mT:constant</t>
+        </is>
       </c>
       <c r="B15">
-        <v>2.7734406216515328</v>
+        <v>9.28355460267673</v>
       </c>
       <c r="C15">
+        <v>2.773440621651533</v>
+      </c>
+      <c r="D15">
         <v>15.79366858370193</v>
       </c>
-      <c r="D15">
-        <v>2.0477190551015931E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E15">
+        <v>0.0002047719055101593</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_small-mT:constant</t>
+        </is>
+      </c>
+      <c r="B16">
         <v>12.62726386385742</v>
       </c>
-      <c r="B16">
-        <v>6.0026884916522363</v>
-      </c>
       <c r="C16">
-        <v>19.251839236062612</v>
+        <v>6.002688491652236</v>
       </c>
       <c r="D16">
-        <v>3.4984401153792533E-8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16.182143848229831</v>
+        <v>19.25183923606261</v>
+      </c>
+      <c r="E16">
+        <v>3.498440115379253E-08</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_small-mT:constant</t>
+        </is>
       </c>
       <c r="B17">
-        <v>9.8000545303075732</v>
+        <v>16.18214384822983</v>
       </c>
       <c r="C17">
-        <v>22.564233166152079</v>
+        <v>9.800054530307573</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16.915108372290209</v>
+        <v>22.56423316615208</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_small-mT:constant</t>
+        </is>
       </c>
       <c r="B18">
-        <v>10.457107894256399</v>
+        <v>16.91510837229021</v>
       </c>
       <c r="C18">
-        <v>23.373108850324019</v>
+        <v>10.4571078942564</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>51.425385132566561</v>
+        <v>23.37310885032402</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_big-mT:constant</t>
+        </is>
       </c>
       <c r="B19">
-        <v>44.818071843391706</v>
+        <v>51.42538513256656</v>
       </c>
       <c r="C19">
-        <v>58.032698421741422</v>
+        <v>44.81807184339171</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>54.750810713426937</v>
+        <v>58.03269842174142</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_big-mT:constant</t>
+        </is>
       </c>
       <c r="B20">
-        <v>48.099726291189839</v>
+        <v>54.75081071342694</v>
       </c>
       <c r="C20">
-        <v>61.401895135664049</v>
+        <v>48.09972629118984</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>54.063874700301511</v>
+        <v>61.40189513566405</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-mT:constant</t>
+        </is>
       </c>
       <c r="B21">
-        <v>47.634284633500357</v>
+        <v>54.06387470030151</v>
       </c>
       <c r="C21">
-        <v>60.493464767102672</v>
+        <v>47.63428463350036</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>55.845535275229878</v>
+        <v>60.49346476710267</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-mT:constant</t>
+        </is>
       </c>
       <c r="B22">
-        <v>49.255166363305399</v>
+        <v>55.84553527522988</v>
       </c>
       <c r="C22">
-        <v>62.435904187154357</v>
+        <v>49.2551663633054</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>-2.1216338669578358</v>
+        <v>62.43590418715436</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mM:constant-tM:constant</t>
+        </is>
       </c>
       <c r="B23">
-        <v>-8.3677464278852867</v>
+        <v>-2.121633866957836</v>
       </c>
       <c r="C23">
-        <v>4.1244786939696132</v>
+        <v>-8.367746427885287</v>
       </c>
       <c r="D23">
-        <v>0.99424389985741612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>5.5163420565329204</v>
+        <v>4.124478693969613</v>
+      </c>
+      <c r="E23">
+        <v>0.9942438998574161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_small-tM:constant</t>
+        </is>
       </c>
       <c r="B24">
+        <v>5.51634205653292</v>
+      </c>
+      <c r="C24">
         <v>-0.6627788788640796</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>11.69546299192992</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1342528070895028</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8.8600513177136122</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_small-tM:constant</t>
+        </is>
       </c>
       <c r="B25">
-        <v>2.5604520963068058</v>
+        <v>8.860051317713612</v>
       </c>
       <c r="C25">
+        <v>2.560452096306806</v>
+      </c>
+      <c r="D25">
         <v>15.15965053912042</v>
       </c>
-      <c r="D25">
-        <v>2.7676045553048922E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>12.414931302086019</v>
+      <c r="E25">
+        <v>0.0002767604555304892</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_small-tM:constant</t>
+        </is>
       </c>
       <c r="B26">
-        <v>6.3708419951466251</v>
+        <v>12.41493130208602</v>
       </c>
       <c r="C26">
-        <v>18.459020609025409</v>
+        <v>6.370841995146625</v>
       </c>
       <c r="D26">
-        <v>1.480056743830005E-9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>13.147895826146399</v>
+        <v>18.45902060902541</v>
+      </c>
+      <c r="E26">
+        <v>1.480056743830005E-09</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_small-tM:constant</t>
+        </is>
       </c>
       <c r="B27">
-        <v>7.0237043152115302</v>
+        <v>13.1478958261464</v>
       </c>
       <c r="C27">
+        <v>7.02370431521153</v>
+      </c>
+      <c r="D27">
         <v>19.27208733708126</v>
       </c>
-      <c r="D27">
-        <v>1.6413626013900279E-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>47.658172586422751</v>
+      <c r="E27">
+        <v>1.641362601390028E-10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_big-tM:constant</t>
+        </is>
       </c>
       <c r="B28">
-        <v>41.376728453929942</v>
+        <v>47.65817258642275</v>
       </c>
       <c r="C28">
-        <v>53.939616718915573</v>
+        <v>41.37672845392994</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>50.983598167283127</v>
+        <v>53.93961671891557</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_big-tM:constant</t>
+        </is>
       </c>
       <c r="B29">
-        <v>44.656128255853552</v>
+        <v>50.98359816728313</v>
       </c>
       <c r="C29">
-        <v>57.311068078712722</v>
+        <v>44.65612825585355</v>
       </c>
       <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>50.296662154157701</v>
+        <v>57.31106807871272</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-tM:constant</t>
+        </is>
       </c>
       <c r="B30">
+        <v>50.2966621541577</v>
+      </c>
+      <c r="C30">
         <v>44.20243702577347</v>
       </c>
-      <c r="C30">
-        <v>56.390887282541932</v>
-      </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>52.078322729086068</v>
+        <v>56.39088728254193</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-tM:constant</t>
+        </is>
       </c>
       <c r="B31">
-        <v>45.814704454990633</v>
+        <v>52.07832272908607</v>
       </c>
       <c r="C31">
+        <v>45.81470445499063</v>
+      </c>
+      <c r="D31">
         <v>58.34194100318151</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>7.6379759234907567</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_small-mM:constant</t>
+        </is>
       </c>
       <c r="B32">
+        <v>7.637975923490757</v>
+      </c>
+      <c r="C32">
         <v>1.235239045125986</v>
       </c>
-      <c r="C32">
-        <v>14.040712801855531</v>
-      </c>
       <c r="D32">
-        <v>5.5283721315653178E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+        <v>14.04071280185553</v>
+      </c>
+      <c r="E32">
+        <v>0.005528372131565318</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_small-mM:constant</t>
+        </is>
+      </c>
+      <c r="B33">
         <v>10.98168518467145</v>
       </c>
-      <c r="B33">
-        <v>4.4626013265162259</v>
-      </c>
       <c r="C33">
-        <v>17.500769042826668</v>
+        <v>4.462601326516226</v>
       </c>
       <c r="D33">
-        <v>2.586518942138127E-6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+        <v>17.50076904282667</v>
+      </c>
+      <c r="E33">
+        <v>2.586518942138127E-06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_small-mM:constant</t>
+        </is>
+      </c>
+      <c r="B34">
         <v>14.53656516904385</v>
       </c>
-      <c r="B34">
-        <v>8.2640441806716467</v>
-      </c>
       <c r="C34">
-        <v>20.809086157416061</v>
+        <v>8.264044180671647</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
+        <v>20.80908615741606</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_small-mM:constant</t>
+        </is>
+      </c>
+      <c r="B35">
         <v>15.26952969310423</v>
       </c>
-      <c r="B35">
-        <v>8.9197875202347365</v>
-      </c>
       <c r="C35">
+        <v>8.919787520234737</v>
+      </c>
+      <c r="D35">
         <v>21.61927186597373</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>49.779806453380587</v>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_big-mM:constant</t>
+        </is>
       </c>
       <c r="B36">
-        <v>43.278264760140502</v>
+        <v>49.77980645338059</v>
       </c>
       <c r="C36">
-        <v>56.281348146620672</v>
+        <v>43.2782647601405</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+        <v>56.28134814662067</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_big-mM:constant</t>
+        </is>
+      </c>
+      <c r="B37">
         <v>53.10523203424097</v>
       </c>
-      <c r="B37">
-        <v>46.559211909053637</v>
-      </c>
       <c r="C37">
-        <v>59.651252159428303</v>
+        <v>46.55921190905364</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>52.418296021115538</v>
+        <v>59.6512521594283</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-mM:constant</t>
+        </is>
       </c>
       <c r="B38">
-        <v>46.097450831210907</v>
+        <v>52.41829602111554</v>
       </c>
       <c r="C38">
-        <v>58.739141211020168</v>
+        <v>46.09745083121091</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>54.199956596043897</v>
+        <v>58.73914121102017</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-mM:constant</t>
+        </is>
       </c>
       <c r="B39">
-        <v>47.715635669154707</v>
+        <v>54.1999565960439</v>
       </c>
       <c r="C39">
-        <v>60.684277522933101</v>
+        <v>47.71563566915471</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>3.3437092611806918</v>
+        <v>60.6842775229331</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_small-tT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B40">
+        <v>3.343709261180692</v>
+      </c>
+      <c r="C40">
         <v>-3.111216591232008</v>
       </c>
-      <c r="C40">
-        <v>9.7986351135933916</v>
-      </c>
       <c r="D40">
-        <v>0.87098402876116499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>6.8985892455530973</v>
+        <v>9.798635113593392</v>
+      </c>
+      <c r="E40">
+        <v>0.870984028761165</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_small-tT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B41">
-        <v>0.69277479779076501</v>
+        <v>6.898589245553097</v>
       </c>
       <c r="C41">
+        <v>0.692774797790765</v>
+      </c>
+      <c r="D41">
         <v>13.10440369331543</v>
       </c>
-      <c r="D41">
-        <v>1.488412825672625E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>7.6315537696134754</v>
+      <c r="E41">
+        <v>0.01488412825672625</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_small-tT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B42">
+        <v>7.631553769613475</v>
+      </c>
+      <c r="C42">
         <v>1.347698339035583</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>13.91540920019137</v>
       </c>
-      <c r="D42">
-        <v>4.191089785646529E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="E42">
+        <v>0.004191089785646529</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_big-tT:fluctuation_small</t>
+        </is>
+      </c>
+      <c r="B43">
         <v>42.14183052988983</v>
       </c>
-      <c r="B43">
-        <v>35.704621678265937</v>
-      </c>
       <c r="C43">
-        <v>48.579039381513716</v>
+        <v>35.70462167826594</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>45.467256110750213</v>
+        <v>48.57903938151372</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_big-tT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B44">
-        <v>38.985127379396339</v>
+        <v>45.46725611075021</v>
       </c>
       <c r="C44">
-        <v>51.949384842104088</v>
+        <v>38.98512737939634</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44.780320097624781</v>
+        <v>51.94938484210409</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-tT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B45">
-        <v>38.525666044423573</v>
+        <v>44.78032009762478</v>
       </c>
       <c r="C45">
-        <v>51.034974150826002</v>
+        <v>38.52566604442357</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>46.561980672553148</v>
+        <v>51.034974150826</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-tT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B46">
-        <v>40.142165153912522</v>
+        <v>46.56198067255315</v>
       </c>
       <c r="C46">
-        <v>52.981796191193773</v>
+        <v>40.14216515391252</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
+        <v>52.98179619119377</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_small-mT:fluctuation_small</t>
+        </is>
+      </c>
+      <c r="B47">
         <v>3.554879984372405</v>
       </c>
-      <c r="B47">
-        <v>-2.7709043761747849</v>
-      </c>
       <c r="C47">
-        <v>9.8806643449195963</v>
+        <v>-2.770904376174785</v>
       </c>
       <c r="D47">
-        <v>0.79664088381572495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>4.2878445084327836</v>
+        <v>9.880664344919596</v>
+      </c>
+      <c r="E47">
+        <v>0.796640883815725</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_small-mT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B48">
-        <v>-2.1145186403186988</v>
+        <v>4.287844508432784</v>
       </c>
       <c r="C48">
-        <v>10.690207657184271</v>
+        <v>-2.114518640318699</v>
       </c>
       <c r="D48">
+        <v>10.69020765718427</v>
+      </c>
+      <c r="E48">
         <v>0.5564453499619606</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>38.798121268709139</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_big-mT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B49">
-        <v>32.245177455771866</v>
+        <v>38.79812126870914</v>
       </c>
       <c r="C49">
-        <v>45.351065081646396</v>
+        <v>32.24517745577187</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>42.123546849569522</v>
+        <v>45.3510650816464</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_big-mT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B50">
-        <v>35.526471156057198</v>
+        <v>42.12354684956952</v>
       </c>
       <c r="C50">
-        <v>48.720622543081838</v>
+        <v>35.5264711560572</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>41.436610836444089</v>
+        <v>48.72062254308184</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-mT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B51">
-        <v>35.062906094199271</v>
+        <v>41.43661083644409</v>
       </c>
       <c r="C51">
-        <v>47.810315578688908</v>
+        <v>35.06290609419927</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>43.218271411372463</v>
+        <v>47.81031557868891</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-mT:fluctuation_small</t>
+        </is>
       </c>
       <c r="B52">
-        <v>36.682412928398193</v>
+        <v>43.21827141137246</v>
       </c>
       <c r="C52">
-        <v>49.754129894346732</v>
+        <v>36.68241292839819</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>0.73296452406037815</v>
+        <v>49.75412989434673</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_small-tM:fluctuation_small</t>
+        </is>
       </c>
       <c r="B53">
-        <v>-5.4181588764576816</v>
+        <v>0.7329645240603782</v>
       </c>
       <c r="C53">
-        <v>6.8840879245784388</v>
+        <v>-5.418158876457682</v>
       </c>
       <c r="D53">
-        <v>0.99999982677022237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>35.243241284336733</v>
+        <v>6.884087924578439</v>
+      </c>
+      <c r="E53">
+        <v>0.9999998267702224</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_big-tM:fluctuation_small</t>
+        </is>
       </c>
       <c r="B54">
-        <v>28.935536645133769</v>
+        <v>35.24324128433673</v>
       </c>
       <c r="C54">
+        <v>28.93553664513377</v>
+      </c>
+      <c r="D54">
         <v>41.5509459235397</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>38.568666865197123</v>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_big-tM:fluctuation_small</t>
+        </is>
       </c>
       <c r="B55">
-        <v>32.215126678353172</v>
+        <v>38.56866686519712</v>
       </c>
       <c r="C55">
+        <v>32.21512667835317</v>
+      </c>
+      <c r="D55">
         <v>44.92220705204106</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>37.881730852071676</v>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-tM:fluctuation_small</t>
+        </is>
       </c>
       <c r="B56">
+        <v>37.88173085207168</v>
+      </c>
+      <c r="C56">
         <v>31.76044198932194</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>44.00301971482142</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-tM:fluctuation_small</t>
+        </is>
+      </c>
+      <c r="B57">
         <v>39.66339142700005</v>
       </c>
-      <c r="B57">
-        <v>33.373438222931163</v>
-      </c>
       <c r="C57">
-        <v>45.953344631068937</v>
+        <v>33.37343822293116</v>
       </c>
       <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>34.510276760276348</v>
+        <v>45.95334463106894</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>tT:fluctuation_big-mM:fluctuation_small</t>
+        </is>
       </c>
       <c r="B58">
-        <v>28.125776472253008</v>
+        <v>34.51027676027635</v>
       </c>
       <c r="C58">
-        <v>40.894777048299702</v>
+        <v>28.12577647225301</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>37.835702341136738</v>
+        <v>40.8947770482997</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_big-mM:fluctuation_small</t>
+        </is>
       </c>
       <c r="B59">
-        <v>31.405913929517851</v>
+        <v>37.83570234113674</v>
       </c>
       <c r="C59">
-        <v>44.265490752755618</v>
+        <v>31.40591392951785</v>
       </c>
       <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>37.148766328011313</v>
+        <v>44.26549075275562</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-mM:fluctuation_small</t>
+        </is>
       </c>
       <c r="B60">
+        <v>37.14876632801131</v>
+      </c>
+      <c r="C60">
         <v>30.94837251361761</v>
       </c>
-      <c r="C60">
-        <v>43.349160142404997</v>
-      </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>38.930426902939672</v>
+        <v>43.349160142405</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-mM:fluctuation_small</t>
+        </is>
       </c>
       <c r="B61">
-        <v>32.563463936051598</v>
+        <v>38.93042690293967</v>
       </c>
       <c r="C61">
-        <v>45.297389869827747</v>
+        <v>32.5634639360516</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
+        <v>45.29738986982775</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mT:fluctuation_big-tT:fluctuation_big</t>
+        </is>
+      </c>
+      <c r="B62">
         <v>3.325425580860383</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>-3.254315884061342</v>
       </c>
-      <c r="C62">
-        <v>9.9051670457821075</v>
-      </c>
       <c r="D62">
-        <v>0.88877585778741075</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
+        <v>9.905167045782107</v>
+      </c>
+      <c r="E62">
+        <v>0.8887758577874108</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-tT:fluctuation_big</t>
+        </is>
+      </c>
+      <c r="B63">
         <v>2.63848956773495</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>-3.717271769869956</v>
       </c>
-      <c r="C63">
-        <v>8.9942509053398574</v>
-      </c>
       <c r="D63">
+        <v>8.994250905339857</v>
+      </c>
+      <c r="E63">
         <v>0.9710365422266295</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>4.4201501426633172</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-tT:fluctuation_big</t>
+        </is>
       </c>
       <c r="B64">
-        <v>-2.0982113192951952</v>
+        <v>4.420150142663317</v>
       </c>
       <c r="C64">
+        <v>-2.098211319295195</v>
+      </c>
+      <c r="D64">
         <v>10.93851160462183</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>0.5363156751099909</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>-0.68693601312543251</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>tM:fluctuation_big-mT:fluctuation_big</t>
+        </is>
       </c>
       <c r="B65">
-        <v>-7.0881888023075366</v>
+        <v>-0.6869360131254325</v>
       </c>
       <c r="C65">
-        <v>5.7143167760566724</v>
+        <v>-7.088188802307537</v>
       </c>
       <c r="D65">
-        <v>0.99999994355170807</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
+        <v>5.714316776056672</v>
+      </c>
+      <c r="E65">
+        <v>0.9999999435517081</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-mT:fluctuation_big</t>
+        </is>
+      </c>
+      <c r="B66">
         <v>1.094724561802934</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>-5.468001338245327</v>
       </c>
-      <c r="C66">
-        <v>7.6574504618511954</v>
-      </c>
       <c r="D66">
-        <v>0.99999399401127631</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>1.7816605749283669</v>
+        <v>7.657450461851195</v>
+      </c>
+      <c r="E66">
+        <v>0.9999939940112763</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mM:fluctuation_big-tM:fluctuation_big</t>
+        </is>
       </c>
       <c r="B67">
-        <v>-4.5564839228365184</v>
+        <v>1.781660574928367</v>
       </c>
       <c r="C67">
-        <v>8.1198050726932518</v>
+        <v>-4.556483922836518</v>
       </c>
       <c r="D67">
-        <v>0.99893967922618399</v>
+        <v>8.119805072693252</v>
+      </c>
+      <c r="E67">
+        <v>0.998939679226184</v>
       </c>
     </row>
   </sheetData>
